--- a/docs/系统设计/运维方案.xlsx
+++ b/docs/系统设计/运维方案.xlsx
@@ -5012,9 +5012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AJ49" sqref="AJ49"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
